--- a/data/策略量化/Book1.xlsx
+++ b/data/策略量化/Book1.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="12915" windowHeight="5595" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="12915" windowHeight="5595" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="策略编制" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="1、策略编制" sheetId="2" r:id="rId1"/>
+    <sheet name="2、规范化公式" sheetId="3" r:id="rId2"/>
+    <sheet name="3、初步测试" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="156">
   <si>
     <t>风险管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,14 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当前CLOSE大于365天前的CLOSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前CLOSE小于365天前的CLOSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>持仓手数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,14 +246,6 @@
     <t>2.2.6</t>
   </si>
   <si>
-    <t>条件1价格 = N日前的开盘价格 + [（买开N日中最高价-买开N日中的最低价）* 买开波幅幅度]    买开N=0代表当日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件1价格 = N日前的开盘价格 - [（卖开N日中最高价-卖开N日中的最低价）* 卖开波幅幅度]    卖开N=0代表当日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卖开N日中的最低价 &lt;= 条件1价格 &lt;= 卖开N日中的最高价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,10 +254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>条件1价格 = BKPRICE-[（卖平M日中最高价-卖平M日中的最低价）* 卖平波幅幅度] 卖平M=0代表当日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.2.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -303,10 +283,6 @@
   </si>
   <si>
     <t>CLOSE&gt;SKPRICE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件1价格 = SKPRICE+[（买平M日中最高价-买平M日中的最低价）* 卖平波幅幅度] 买平M=0代表当日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -368,9 +344,310 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>规范化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件1价格 = N日前的开盘价格 - [（卖开N日中最高价-卖开N日中的最低价）* 卖开波幅幅度]    卖开N=1代表当日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件1价格 = N日前的开盘价格 + [（买开N日中最高价-买开N日中的最低价）* 买开波幅幅度]    买开N=1代表当日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件1价格 = BKPRICE-[（卖平M日中最高价-卖平M日中的最低价）* 卖平波幅幅度] 卖平M=1代表当日  卖平M&lt;=买开N？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件1价格 = SKPRICE+[（买平M日中最高价-买平M日中的最低价）* 卖平波幅幅度] 买平M=1代表当日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> CLOSE大于N日前的OPEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLOSE小于N日前的OPEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1、凯利公式（暂时不考虑）
 2、半凯利公式（暂时不考虑）
-3、参与交易的合约数量=（账户余额*风险系数）/最大亏损</t>
+3、参与交易的合约数量=（账户余额*风险系数）/最大亏损
+4、只交易一手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证公式与规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认理论预期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步盈利估计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步考察稳健度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趋势跟随</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长？中？短？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前CLOSE大于365天前的CLOSE （连续n天的均值，也可以是依次大于）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前CLOSE小于365天前的CLOSE （连续n天的均值，也可以是依次小于）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均5-7个交易日交易一次</t>
+  </si>
+  <si>
+    <t>跟随判断多空的趋势，不允许同一交易时间段多空同时交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无BUG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步测试时间范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170101-20190421</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均5-7个交易日交易一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采用趋势跟随策略，符合做多方向只做多，符合做空方向只做空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始本金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75.6%/113%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">胜率/盈利率           </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">胜率/盈利率  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.33%/42.86%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据期限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Trend_DAYS    = 365
+Trend_DAYS_Before=30
+A_WEIGHT      = 10
+A_BZJ         = 0.14
+BK_A_LOSS_SP     = 1400
+BK_Volatility    = 0.7
+SP_Volatility    = 0.9
+BK_BEFORE_DAY    = 1
+SP_BEFORE_DAY    = 1
+BK_A_FLAOT_PROFIT_ALL=500
+SK_A_LOSS_SP     = 1050
+SK_Volatility    = 0.3
+BP_Volatility    = 0.9
+SK_BEFORE_DAY    = 1
+BP_BEFORE_DAY    = 1
+SK_A_FLAOT_PROFIT_ALL=1000
+self.LongBestday   =[0,1,2,3,4]
+self.ShortBestday  =[0,1,2,3,4]  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险估计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险不应超过年度利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般原则是期望全年利润等于该市场交易保证金（粗略绩效）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗略绩效评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广泛的连续参数集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广泛的多样化的一篮子市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广泛的市场类型与行情状况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多头与空头的部位交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找最大市场多样化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决定测试期间长短</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺纹、棉花、玉米、铜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170101-20190421</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常高的损失---初步警告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边际收益损失---可以接受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择一篮子组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高利高准低风---前景看好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十分糟糕---断然放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十分良好---更臻完美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表现不好---潜在改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以经验法则来看，五年的日线是最低限度，至少包含牛市、熊市、盘整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以十年来看，每两年为一组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形成报告（交易策略风险与利润报告）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告研读P218</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,11 +784,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -565,6 +839,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -572,97 +855,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2362199</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="流程图: 合并 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2752724" y="857249"/>
-          <a:ext cx="2352675" cy="866775"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMerge">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-            </a:rPr>
-            <a:t>公式化策略</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -976,541 +1168,993 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E6:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="5" max="5" width="31" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="5:5" ht="56.25" customHeight="1">
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="5:5" ht="71.25" customHeight="1"/>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="102.25" customWidth="1"/>
     <col min="6" max="6" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="15" thickBot="1">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A2" s="7">
+      <c r="D1" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="22.5" customHeight="1">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" outlineLevel="1">
-      <c r="A3" s="12">
+    <row r="3" spans="1:4" outlineLevel="1">
+      <c r="A3" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" outlineLevel="1">
+      <c r="A4" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.25">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" outlineLevel="1">
+      <c r="A6" s="11">
+        <v>2.1</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" outlineLevel="1">
+      <c r="A7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" outlineLevel="1">
-      <c r="A4" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="C7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" outlineLevel="1">
+      <c r="A8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.25">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" outlineLevel="1">
-      <c r="A6" s="12">
-        <v>2.1</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="C8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" outlineLevel="1">
+      <c r="A9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" outlineLevel="1">
+      <c r="A10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" outlineLevel="1">
+      <c r="A11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" outlineLevel="1">
+      <c r="A12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" outlineLevel="1">
+      <c r="A13" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" outlineLevel="1">
+      <c r="A14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" outlineLevel="1">
+      <c r="A15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" outlineLevel="1">
+      <c r="A16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" outlineLevel="1">
+      <c r="A17" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" outlineLevel="1">
+      <c r="A18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" outlineLevel="1">
+      <c r="A19" s="14" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" outlineLevel="1">
-      <c r="A7" s="13" t="s">
+      <c r="B19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.25">
+      <c r="A20" s="6">
+        <v>3</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" outlineLevel="1">
+      <c r="A21" s="11">
+        <v>3.1</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" outlineLevel="1">
+      <c r="A22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" outlineLevel="1">
+      <c r="A23" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" outlineLevel="1">
+      <c r="A24" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" outlineLevel="1">
-      <c r="A8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" outlineLevel="1">
-      <c r="A9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="D24" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" outlineLevel="1">
+      <c r="A25" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="20"/>
+    </row>
+    <row r="26" spans="1:4" outlineLevel="1">
+      <c r="A26" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="20"/>
+    </row>
+    <row r="27" spans="1:4" ht="84" outlineLevel="1">
+      <c r="A27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" outlineLevel="1">
+      <c r="A28" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="48" outlineLevel="1">
+      <c r="A29" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" outlineLevel="1">
+      <c r="A30" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" outlineLevel="1">
+      <c r="A31" s="13">
+        <v>3.2</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" outlineLevel="1">
+      <c r="A32" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" outlineLevel="1">
+      <c r="A33" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" outlineLevel="1">
+      <c r="A34" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" outlineLevel="1">
+      <c r="A35" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="20"/>
+    </row>
+    <row r="36" spans="1:6" outlineLevel="1">
+      <c r="A36" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="20"/>
+    </row>
+    <row r="37" spans="1:6" ht="84" outlineLevel="1">
+      <c r="A37" s="14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" outlineLevel="1">
-      <c r="A10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" outlineLevel="1">
-      <c r="A11" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" outlineLevel="1">
-      <c r="A12" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" outlineLevel="1">
-      <c r="A13" s="14">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" outlineLevel="1">
-      <c r="A14" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" outlineLevel="1">
-      <c r="A15" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" outlineLevel="1">
-      <c r="A16" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" outlineLevel="1">
+      <c r="A38" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="48" outlineLevel="1">
+      <c r="A39" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" outlineLevel="1">
+      <c r="A40" s="14" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" outlineLevel="1">
-      <c r="A17" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" outlineLevel="1">
-      <c r="A18" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" outlineLevel="1">
-      <c r="A19" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.25">
-      <c r="A20" s="7">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" outlineLevel="1">
-      <c r="A21" s="12">
-        <v>3.1</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" outlineLevel="1">
-      <c r="A22" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" outlineLevel="1">
-      <c r="A23" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" outlineLevel="1">
-      <c r="A24" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" outlineLevel="1">
-      <c r="A25" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" outlineLevel="1">
-      <c r="A26" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="84" outlineLevel="1">
-      <c r="A27" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" outlineLevel="1">
-      <c r="A28" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="11" t="s">
+      <c r="B40" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C40" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="48" outlineLevel="1">
-      <c r="A29" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" outlineLevel="1">
-      <c r="A30" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" outlineLevel="1">
-      <c r="A31" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" outlineLevel="1">
-      <c r="A32" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" outlineLevel="1">
-      <c r="A33" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" outlineLevel="1">
-      <c r="A34" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="11" t="s">
+    <row r="41" spans="1:6" ht="16.5">
+      <c r="A41" s="6">
+        <v>4</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" ht="24" outlineLevel="1">
+      <c r="A42" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" outlineLevel="1">
-      <c r="A35" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" outlineLevel="1">
-      <c r="A36" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="6" t="s">
+    </row>
+    <row r="43" spans="1:6" ht="24" outlineLevel="1">
+      <c r="A43" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" outlineLevel="1">
+      <c r="A44" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="84" outlineLevel="1">
-      <c r="A37" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" outlineLevel="1">
-      <c r="A38" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="48" outlineLevel="1">
-      <c r="A39" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" outlineLevel="1">
-      <c r="A40" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="16.5" collapsed="1">
-      <c r="A41" s="7">
+    <row r="45" spans="1:6" ht="48">
+      <c r="A45" s="6">
+        <v>5</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="7">
         <v>4</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" ht="24" hidden="1" outlineLevel="1">
-      <c r="A42" s="9">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="24" hidden="1" outlineLevel="1">
-      <c r="A43" s="9">
-        <v>4.2</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" hidden="1" outlineLevel="1">
-      <c r="A44" s="9">
-        <v>4.3</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="36">
-      <c r="A45" s="7">
-        <v>5</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>90</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D34:D36"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.75" customWidth="1"/>
+    <col min="3" max="3" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="216">
+      <c r="A3" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="1:4" ht="14.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="5">
+        <v>30000</v>
+      </c>
+      <c r="D6" s="5">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.25">
+      <c r="A11" s="6">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="18">
+        <v>3.2</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="18">
+        <v>3.3</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="18">
+        <v>3.4</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.25">
+      <c r="A19" s="6">
+        <v>4</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="18">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="18">
+        <v>4.2</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="18">
+        <v>421</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="18">
+        <v>422</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="18"/>
+      <c r="B24" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="18"/>
+      <c r="B25" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="18">
+        <v>423</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="18"/>
+      <c r="B27" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="18"/>
+      <c r="B28" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="18"/>
+      <c r="B29" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="18">
+        <v>4.3</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="18">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/策略量化/Book1.xlsx
+++ b/data/策略量化/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="12915" windowHeight="5595" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="12915" windowHeight="5595"/>
   </bookViews>
   <sheets>
     <sheet name="1、策略编制" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="181">
   <si>
     <t>风险管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -376,10 +376,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> CLOSE大于N日前的OPEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CLOSE小于N日前的OPEN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -416,14 +412,6 @@
   </si>
   <si>
     <t>长？中？短？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前CLOSE大于365天前的CLOSE （连续n天的均值，也可以是依次大于）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前CLOSE小于365天前的CLOSE （连续n天的均值，也可以是依次小于）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -587,10 +575,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>螺纹、棉花、玉米、铜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20170101-20190421</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -648,6 +632,133 @@
   </si>
   <si>
     <t>报告研读P218</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前连续n天的均值大于Trend_DAYS天前的连续n天的均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前连续n天的均值小于Trend_DAYS天前的连续n天的均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.5.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.5.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.5.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLOSE大于N日前的OPEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺纹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棉花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010-2011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012-2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>螺纹、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>棉花、玉米、铜</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N日的均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.7</t>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.4</t>
+  </si>
+  <si>
+    <t>CLOSE小于N日的均值，缩小移动停损。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLOSE小于N日的均值，考虑周交易日。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -655,7 +766,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -725,6 +836,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -784,7 +903,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -844,6 +963,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1171,10 +1296,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1215,7 +1340,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>86</v>
@@ -1229,7 +1354,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="D4" t="s">
         <v>85</v>
@@ -1276,7 +1401,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="D8" t="s">
         <v>85</v>
@@ -1336,39 +1461,39 @@
       </c>
     </row>
     <row r="13" spans="1:4" outlineLevel="1">
-      <c r="A13" s="13">
+      <c r="A13" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" outlineLevel="1">
+      <c r="A14" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" outlineLevel="1">
-      <c r="A14" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:4" outlineLevel="1">
       <c r="A15" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
         <v>85</v>
@@ -1376,13 +1501,13 @@
     </row>
     <row r="16" spans="1:4" outlineLevel="1">
       <c r="A16" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
         <v>85</v>
@@ -1390,13 +1515,13 @@
     </row>
     <row r="17" spans="1:4" outlineLevel="1">
       <c r="A17" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
         <v>85</v>
@@ -1404,350 +1529,378 @@
     </row>
     <row r="18" spans="1:4" outlineLevel="1">
       <c r="A18" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>30</v>
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:4" outlineLevel="1">
       <c r="A19" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" outlineLevel="1">
+      <c r="A20" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.25">
-      <c r="A20" s="6">
+    <row r="21" spans="1:4" ht="14.25">
+      <c r="A21" s="6">
         <v>3</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" outlineLevel="1">
-      <c r="A21" s="11">
+    <row r="22" spans="1:4" outlineLevel="1">
+      <c r="A22" s="11">
         <v>3.1</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B22" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:4" outlineLevel="1">
-      <c r="A22" s="12" t="s">
+    <row r="23" spans="1:4" outlineLevel="1">
+      <c r="A23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B23" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" outlineLevel="1">
-      <c r="A23" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" t="s">
-        <v>85</v>
-      </c>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:4" outlineLevel="1">
       <c r="A24" s="15" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:4" outlineLevel="1">
       <c r="A25" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="20"/>
+        <v>23</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="26" spans="1:4" outlineLevel="1">
       <c r="A26" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27" spans="1:4" outlineLevel="1">
+      <c r="A27" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B27" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="20"/>
-    </row>
-    <row r="27" spans="1:4" ht="84" outlineLevel="1">
-      <c r="A27" s="12" t="s">
+      <c r="D27" s="22"/>
+    </row>
+    <row r="28" spans="1:4" ht="84" outlineLevel="1">
+      <c r="A28" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B28" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C28" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D28" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" outlineLevel="1">
-      <c r="A28" s="15" t="s">
+    <row r="29" spans="1:4" outlineLevel="1">
+      <c r="A29" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B29" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="48" outlineLevel="1">
-      <c r="A29" s="15" t="s">
+    <row r="30" spans="1:4" ht="48" outlineLevel="1">
+      <c r="A30" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B30" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C30" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:4" outlineLevel="1">
-      <c r="A30" s="12" t="s">
+    <row r="31" spans="1:4" outlineLevel="1">
+      <c r="A31" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B31" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:4" outlineLevel="1">
-      <c r="A31" s="13">
+    <row r="32" spans="1:4" outlineLevel="1">
+      <c r="A32" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" outlineLevel="1">
+      <c r="A33" s="13">
         <v>3.2</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B33" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:4" outlineLevel="1">
-      <c r="A32" s="14" t="s">
+    <row r="34" spans="1:6" outlineLevel="1">
+      <c r="A34" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B34" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" outlineLevel="1">
-      <c r="A33" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" outlineLevel="1">
-      <c r="A34" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>85</v>
-      </c>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" spans="1:6" outlineLevel="1">
       <c r="A35" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" s="20"/>
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="36" spans="1:6" outlineLevel="1">
       <c r="A36" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="20"/>
-    </row>
-    <row r="37" spans="1:6" ht="84" outlineLevel="1">
-      <c r="A37" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" outlineLevel="1">
+      <c r="A37" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="22"/>
     </row>
     <row r="38" spans="1:6" outlineLevel="1">
       <c r="A38" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="22"/>
+    </row>
+    <row r="39" spans="1:6" ht="84" outlineLevel="1">
+      <c r="A39" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" outlineLevel="1">
+      <c r="A40" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B40" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="D38" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="48" outlineLevel="1">
-      <c r="A39" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" outlineLevel="1">
-      <c r="A40" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="D40" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="16.5">
-      <c r="A41" s="6">
+    <row r="41" spans="1:6" ht="48" outlineLevel="1">
+      <c r="A41" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" outlineLevel="1">
+      <c r="A42" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16.5">
+      <c r="A43" s="6">
         <v>4</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" ht="24" outlineLevel="1">
-      <c r="A42" s="8">
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" ht="24" outlineLevel="1">
+      <c r="A44" s="8">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B44" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C44" s="17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="24" outlineLevel="1">
-      <c r="A43" s="8">
+    <row r="45" spans="1:6" ht="24" outlineLevel="1">
+      <c r="A45" s="8">
         <v>4.2</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B45" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C45" s="17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:6" outlineLevel="1">
-      <c r="A44" s="8">
+    <row r="46" spans="1:6" outlineLevel="1">
+      <c r="A46" s="8">
         <v>4.3</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B46" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C46" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="48">
-      <c r="A45" s="6">
+    <row r="47" spans="1:6" ht="48">
+      <c r="A47" s="6">
         <v>5</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D45" s="7">
+      <c r="C47" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="7">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D36:D38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1782,7 +1935,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1793,18 +1946,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.75" customWidth="1"/>
     <col min="3" max="3" width="56.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1">
@@ -1818,29 +1975,29 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.25" collapsed="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="216">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="216" hidden="1" outlineLevel="1">
       <c r="A3" s="8">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D3" s="19"/>
     </row>
@@ -1849,30 +2006,30 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" outlineLevel="1">
       <c r="A5" s="8">
         <v>2.1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" outlineLevel="1">
       <c r="A6" s="8">
         <v>2.2000000000000002</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C6" s="5">
         <v>30000</v>
@@ -1881,60 +2038,60 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" outlineLevel="1">
       <c r="A7" s="8">
         <v>2.2999999999999998</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" outlineLevel="1">
       <c r="A8" s="8">
         <v>2.4</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+    </row>
+    <row r="9" spans="1:4" outlineLevel="1">
       <c r="A9" s="8">
         <v>2.5</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" outlineLevel="1">
       <c r="A10" s="8">
         <v>2.6</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25">
@@ -1942,214 +2099,292 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" outlineLevel="1">
       <c r="A12" s="18">
         <v>3.1</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" outlineLevel="1">
       <c r="A13" s="18">
         <v>3.2</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" outlineLevel="1">
       <c r="A14" s="18">
         <v>3.3</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" outlineLevel="1">
       <c r="A15" s="18">
         <v>3.4</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" outlineLevel="1">
       <c r="A16" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4">
+        <v>142</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" outlineLevel="1">
       <c r="A17" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:11" outlineLevel="1">
       <c r="A18" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" ht="14.25">
+    <row r="19" spans="1:11" ht="14.25">
       <c r="A19" s="6">
         <v>4</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:11" outlineLevel="1">
       <c r="A20" s="18">
         <v>4.0999999999999996</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" outlineLevel="1">
       <c r="A21" s="18">
         <v>4.2</v>
       </c>
       <c r="B21" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="12.75" customHeight="1" outlineLevel="2">
+      <c r="A22" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="18">
-        <v>421</v>
-      </c>
-      <c r="B22" s="9" t="s">
+      <c r="D22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" outlineLevel="2">
+      <c r="A23" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" outlineLevel="2">
+      <c r="A24" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" outlineLevel="2">
+      <c r="A25" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G25" s="21">
+        <v>-4.2299999999999997E-2</v>
+      </c>
+      <c r="H25" s="21">
+        <v>0.35</v>
+      </c>
+      <c r="I25" s="21">
+        <v>0.51</v>
+      </c>
+      <c r="J25" s="21">
+        <v>0.64</v>
+      </c>
+      <c r="K25" s="21">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" outlineLevel="2">
+      <c r="A26" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+    </row>
+    <row r="27" spans="1:11" outlineLevel="3">
+      <c r="A27" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+    </row>
+    <row r="28" spans="1:11" outlineLevel="3">
+      <c r="A28" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="18">
-        <v>422</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="18"/>
-      <c r="B24" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="18"/>
-      <c r="B25" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="18">
-        <v>423</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="18"/>
-      <c r="B27" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="18"/>
-      <c r="B28" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="18"/>
+      <c r="F28" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+    </row>
+    <row r="29" spans="1:11" outlineLevel="3">
+      <c r="A29" s="18" t="s">
+        <v>163</v>
+      </c>
       <c r="B29" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" outlineLevel="1">
       <c r="A30" s="18">
         <v>4.3</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>133</v>
+      </c>
+      <c r="D30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" outlineLevel="1">
       <c r="A31" s="18">
         <v>4.4000000000000004</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>137</v>
+        <v>134</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/data/策略量化/Book1.xlsx
+++ b/data/策略量化/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="12915" windowHeight="5595"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="12915" windowHeight="5595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1、策略编制" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="182">
   <si>
     <t>风险管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -353,10 +353,6 @@
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件1价格 = N日前的开盘价格 - [（卖开N日中最高价-卖开N日中的最低价）* 卖开波幅幅度]    卖开N=1代表当日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -687,10 +683,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>螺纹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>棉花</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -716,10 +708,6 @@
   </si>
   <si>
     <t>2016-2017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-2019</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -759,6 +747,22 @@
   </si>
   <si>
     <t>CLOSE小于N日的均值，考虑周交易日。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-2019.5.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺纹365</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺纹300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件1价格 = N日前的开盘价格 - [（卖开N日中最高价-卖开N日中的最低价）* 卖开波幅幅度]    卖开N=1代表当日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1298,8 +1302,8 @@
   </sheetPr>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1340,7 +1344,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>86</v>
@@ -1354,7 +1358,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
         <v>85</v>
@@ -1401,7 +1405,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D8" t="s">
         <v>85</v>
@@ -1415,7 +1419,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
         <v>85</v>
@@ -1462,16 +1466,16 @@
     </row>
     <row r="13" spans="1:4" outlineLevel="1">
       <c r="A13" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:4" outlineLevel="1">
@@ -1507,7 +1511,7 @@
         <v>43</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
         <v>85</v>
@@ -1521,7 +1525,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="D17" t="s">
         <v>85</v>
@@ -1630,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D26" s="22"/>
     </row>
@@ -1685,7 +1689,7 @@
         <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:4" outlineLevel="1">
@@ -1704,16 +1708,16 @@
     </row>
     <row r="32" spans="1:4" outlineLevel="1">
       <c r="A32" s="12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D32" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:6" outlineLevel="1">
@@ -1769,7 +1773,7 @@
         <v>38</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="22"/>
     </row>
@@ -1824,7 +1828,7 @@
         <v>75</v>
       </c>
       <c r="D41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:6" outlineLevel="1">
@@ -1891,7 +1895,7 @@
         <v>12</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D47" s="7">
         <v>4</v>
@@ -1935,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1951,8 +1955,8 @@
   </sheetPr>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1961,7 +1965,8 @@
     <col min="2" max="2" width="44.75" customWidth="1"/>
     <col min="3" max="3" width="56.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1">
@@ -1975,7 +1980,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" collapsed="1">
@@ -1983,10 +1988,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="216" hidden="1" outlineLevel="1">
@@ -1994,10 +1999,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" s="19"/>
     </row>
@@ -2006,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="5"/>
     </row>
@@ -2015,13 +2020,13 @@
         <v>2.1</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4" outlineLevel="1">
@@ -2029,7 +2034,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="5">
         <v>30000</v>
@@ -2043,13 +2048,13 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:4" outlineLevel="1">
@@ -2057,13 +2062,13 @@
         <v>2.4</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:4" outlineLevel="1">
@@ -2071,13 +2076,13 @@
         <v>2.5</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4" outlineLevel="1">
@@ -2085,13 +2090,13 @@
         <v>2.6</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25">
@@ -2099,7 +2104,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="5"/>
     </row>
@@ -2108,13 +2113,13 @@
         <v>3.1</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:4" outlineLevel="1">
@@ -2122,10 +2127,10 @@
         <v>3.2</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D13" s="5"/>
     </row>
@@ -2134,10 +2139,10 @@
         <v>3.3</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="D14" s="5"/>
     </row>
@@ -2146,46 +2151,46 @@
         <v>3.4</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" outlineLevel="1">
       <c r="A16" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:11" outlineLevel="1">
       <c r="A17" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:11" outlineLevel="1">
       <c r="A18" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D18" s="5"/>
     </row>
@@ -2194,7 +2199,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D19" s="5"/>
     </row>
@@ -2203,7 +2208,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:11" outlineLevel="1">
@@ -2211,123 +2216,133 @@
         <v>4.2</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="12.75" customHeight="1" outlineLevel="2">
       <c r="A22" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D22" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:11" outlineLevel="2">
       <c r="A23" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:11" outlineLevel="2">
       <c r="A24" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>148</v>
-      </c>
       <c r="G24" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="I24" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="J24" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="I24" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>172</v>
-      </c>
       <c r="K24" s="20" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:11" outlineLevel="2">
       <c r="A25" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>150</v>
-      </c>
       <c r="F25" s="20" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="G25" s="21">
-        <v>-4.2299999999999997E-2</v>
+        <v>-0.12</v>
       </c>
       <c r="H25" s="21">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="I25" s="21">
-        <v>0.51</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J25" s="21">
-        <v>0.64</v>
+        <v>0.84</v>
       </c>
       <c r="K25" s="21">
-        <v>0.42</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="26" spans="1:11" outlineLevel="2">
       <c r="A26" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
+        <v>180</v>
+      </c>
+      <c r="G26" s="20">
+        <v>13</v>
+      </c>
+      <c r="H26" s="20">
+        <v>22</v>
+      </c>
+      <c r="I26" s="20">
+        <v>55</v>
+      </c>
+      <c r="J26" s="20">
+        <v>98</v>
+      </c>
+      <c r="K26" s="20">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="1:11" outlineLevel="3">
       <c r="A27" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
@@ -2337,16 +2352,16 @@
     </row>
     <row r="28" spans="1:11" outlineLevel="3">
       <c r="A28" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
@@ -2356,13 +2371,16 @@
     </row>
     <row r="29" spans="1:11" outlineLevel="3">
       <c r="A29" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:11" outlineLevel="1">
@@ -2370,10 +2388,10 @@
         <v>4.3</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:11" outlineLevel="1">
@@ -2381,10 +2399,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
